--- a/snipProgressSheet.xlsx
+++ b/snipProgressSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knaylor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knaylor\Source\Repos\tr-snippets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>text</t>
   </si>
@@ -143,16 +143,16 @@
     <t>style</t>
   </si>
   <si>
-    <t>ElementDescription</t>
-  </si>
-  <si>
     <t>int intWindow</t>
   </si>
   <si>
     <t>string ElementType</t>
   </si>
   <si>
-    <t>31x7=217</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,16 +207,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -500,263 +501,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
       <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/snipProgressSheet.xlsx
+++ b/snipProgressSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t xml:space="preserve">string ElementType</t>
   </si>
@@ -70,9 +70,6 @@
     <t xml:space="preserve">submit</t>
   </si>
   <si>
-    <t xml:space="preserve">imageinput</t>
-  </si>
-  <si>
     <t xml:space="preserve">input</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t xml:space="preserve">select-one</t>
   </si>
   <si>
-    <t xml:space="preserve">select-multiple</t>
-  </si>
-  <si>
     <t xml:space="preserve">table</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tvns:treenode</t>
   </si>
   <si>
     <t xml:space="preserve">option</t>
@@ -538,12 +529,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -899,13 +890,30 @@
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
@@ -1027,42 +1035,9 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/snipProgressSheet.xlsx
+++ b/snipProgressSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
   <si>
     <t xml:space="preserve">string ElementType</t>
   </si>
@@ -534,14 +534,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.55"/>
@@ -593,21 +593,12 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -758,13 +749,30 @@
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -794,13 +802,30 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">

--- a/snipProgressSheet.xlsx
+++ b/snipProgressSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
   <si>
     <t xml:space="preserve">string ElementType</t>
   </si>
@@ -534,7 +534,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -831,13 +831,30 @@
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">

--- a/snipProgressSheet.xlsx
+++ b/snipProgressSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="38">
   <si>
     <t>string ElementType</t>
   </si>
@@ -573,7 +573,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,37 +1194,88 @@
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1236,7 +1287,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">

--- a/snipProgressSheet.xlsx
+++ b/snipProgressSheet.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knaylor\Source\Repos\tr-snippets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,127 +20,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="38">
-  <si>
-    <t>string ElementType</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>innertext</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>href</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>radio</t>
-  </si>
-  <si>
-    <t>checkbox</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>textarea</t>
-  </si>
-  <si>
-    <t>select-one</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>span</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>h5</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>div</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>td</t>
-  </si>
-  <si>
-    <t>tr</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>ul</t>
-  </si>
-  <si>
-    <t>h3</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>option</t>
-  </si>
-  <si>
-    <t>b</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">string ElementType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innertext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">href</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select-one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">td</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -153,7 +146,88 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -162,6 +236,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF181717"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -175,12 +256,48 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF181717"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -195,38 +312,149 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="36">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="22">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -285,312 +513,39 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I41" activeCellId="0" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="1025" width="9.140625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -632,14 +587,23 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -668,7 +632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -693,11 +657,11 @@
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -726,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -755,7 +719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -780,11 +744,11 @@
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -809,11 +773,11 @@
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -842,7 +806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -871,7 +835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -896,11 +860,11 @@
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -925,11 +889,11 @@
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -958,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -987,7 +951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1016,7 +980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1045,7 +1009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -1074,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1103,7 +1067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -1128,11 +1092,11 @@
       <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1157,11 +1121,11 @@
       <c r="H20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1190,7 +1154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
@@ -1219,7 +1183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1248,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
@@ -1277,70 +1241,104 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H25" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>